--- a/outputs-HGR-r202/test-o__Burkholderiales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Burkholderiales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Row</t>
   </si>
@@ -40,21 +40,36 @@
     <t>even_MAG-GUT12361.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12482.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12794.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12944.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12991.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13170.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13480.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT13637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13816.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1384.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13881.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13955.fa</t>
   </si>
   <si>
@@ -70,9 +85,27 @@
     <t>even_MAG-GUT14250.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14532.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14572.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT14827.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15246.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16149.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16156.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT16625.fa</t>
   </si>
   <si>
@@ -82,6 +115,9 @@
     <t>even_MAG-GUT16984.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17271.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17598.fa</t>
   </si>
   <si>
@@ -91,15 +127,30 @@
     <t>even_MAG-GUT18024.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT18195.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18312.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18361.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT18974.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19408.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19561.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19592.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19599.fa</t>
   </si>
   <si>
@@ -124,6 +175,9 @@
     <t>even_MAG-GUT24606.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24616.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT24657.fa</t>
   </si>
   <si>
@@ -145,6 +199,12 @@
     <t>even_MAG-GUT25055.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25075.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25223.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25263.fa</t>
   </si>
   <si>
@@ -163,9 +223,15 @@
     <t>even_MAG-GUT29963.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT30085.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT31546.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT31872.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32354.fa</t>
   </si>
   <si>
@@ -196,6 +262,9 @@
     <t>even_MAG-GUT36009.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT36148.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT36218.fa</t>
   </si>
   <si>
@@ -211,18 +280,30 @@
     <t>even_MAG-GUT37961.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT38016.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38856.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT38999.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39108.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39136.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT39174.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT3922.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT39245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39460.fa</t>
   </si>
   <si>
@@ -238,6 +319,9 @@
     <t>even_MAG-GUT43227.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43254.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4338.fa</t>
   </si>
   <si>
@@ -295,15 +379,27 @@
     <t>even_MAG-GUT57416.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57726.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT58179.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT58214.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT60374.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61409.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61735.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61794.fa</t>
   </si>
   <si>
@@ -343,6 +439,9 @@
     <t>even_MAG-GUT68996.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT69662.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7016.fa</t>
   </si>
   <si>
@@ -373,16 +472,34 @@
     <t>even_MAG-GUT78371.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80384.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80449.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80685.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80720.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80804.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81029.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81145.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT81204.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81432.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81523.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT82115.fa</t>
@@ -478,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E174"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -493,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -629,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.99854370134319159</v>
+        <v>0.99965781319748093</v>
       </c>
       <c r="C9">
-        <v>0.00025188845002529142</v>
+        <v>0.00021942435331030535</v>
       </c>
       <c r="D9">
-        <v>0.0012044102067831082</v>
+        <v>0.00012276244920870103</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -646,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.99987386466572181</v>
+        <v>0.99854370134319159</v>
       </c>
       <c r="C10">
-        <v>0.00012084403129907661</v>
+        <v>0.00025188845002529142</v>
       </c>
       <c r="D10">
-        <v>5.2913029789989865e-06</v>
+        <v>0.0012044102067831082</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -663,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.99899719123190067</v>
+        <v>0.99926854591696779</v>
       </c>
       <c r="C11">
-        <v>0.00046639070496755993</v>
+        <v>0.00018991443901791776</v>
       </c>
       <c r="D11">
-        <v>0.00053641806313172748</v>
+        <v>0.00054153964401428402</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -680,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99986989575663998</v>
+        <v>0.99987386466572181</v>
       </c>
       <c r="C12">
-        <v>0.00011382578078056674</v>
+        <v>0.00012084403129907661</v>
       </c>
       <c r="D12">
-        <v>1.6278462579628823e-05</v>
+        <v>5.2913029789989865e-06</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -697,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.95547547400903987</v>
+        <v>0.99969481097614687</v>
       </c>
       <c r="C13">
-        <v>0.043206596012042603</v>
+        <v>0.00028651183965632899</v>
       </c>
       <c r="D13">
-        <v>0.0013179299789175375</v>
+        <v>1.8677184196838671e-05</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -714,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.99968092144599641</v>
+        <v>0.99899719123190067</v>
       </c>
       <c r="C14">
-        <v>0.00010341154854007529</v>
+        <v>0.00046639070496755993</v>
       </c>
       <c r="D14">
-        <v>0.00021566700546355675</v>
+        <v>0.00053641806313172748</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -731,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99983078069377918</v>
+        <v>0.99986989575663998</v>
       </c>
       <c r="C15">
-        <v>0.00012625537593328722</v>
+        <v>0.00011382578078056674</v>
       </c>
       <c r="D15">
-        <v>4.2963930287596104e-05</v>
+        <v>1.6278462579628823e-05</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -748,13 +865,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99986989575663998</v>
+        <v>0.9996344976526832</v>
       </c>
       <c r="C16">
-        <v>0.00011382578078056674</v>
+        <v>0.00025208619633229406</v>
       </c>
       <c r="D16">
-        <v>1.6278462579628823e-05</v>
+        <v>0.0001134161509845525</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -765,13 +882,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.99951134571049427</v>
+        <v>0.95547547400903987</v>
       </c>
       <c r="C17">
-        <v>0.00022040139494390601</v>
+        <v>0.043206596012042603</v>
       </c>
       <c r="D17">
-        <v>0.00026825289456182665</v>
+        <v>0.0013179299789175375</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -782,13 +899,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.99982789182974852</v>
+        <v>0.99979079261517723</v>
       </c>
       <c r="C18">
-        <v>0.00016727662953722568</v>
+        <v>0.00019830027579628882</v>
       </c>
       <c r="D18">
-        <v>4.8315407141338629e-06</v>
+        <v>1.0907109026447046e-05</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -799,13 +916,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99953957476674593</v>
+        <v>0.99968092144599641</v>
       </c>
       <c r="C19">
-        <v>0.00016048542270207013</v>
+        <v>0.00010341154854007529</v>
       </c>
       <c r="D19">
-        <v>0.00029993981055198115</v>
+        <v>0.00021566700546355675</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -816,13 +933,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99953612592323393</v>
+        <v>0.99983078069377918</v>
       </c>
       <c r="C20">
-        <v>0.00038871536418539032</v>
+        <v>0.00012625537593328722</v>
       </c>
       <c r="D20">
-        <v>7.5158712580496157e-05</v>
+        <v>4.2963930287596104e-05</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -833,13 +950,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.99941018291002104</v>
+        <v>0.99986989575663998</v>
       </c>
       <c r="C21">
-        <v>0.00030198062119863889</v>
+        <v>0.00011382578078056674</v>
       </c>
       <c r="D21">
-        <v>0.00028783646878035825</v>
+        <v>1.6278462579628823e-05</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -850,13 +967,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.99857560344957397</v>
+        <v>0.99951134571049427</v>
       </c>
       <c r="C22">
-        <v>0.00030446641998703352</v>
+        <v>0.00022040139494390601</v>
       </c>
       <c r="D22">
-        <v>0.0011199301304389683</v>
+        <v>0.00026825289456182665</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -867,13 +984,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.99856001162142016</v>
+        <v>0.99982789182974852</v>
       </c>
       <c r="C23">
-        <v>0.00047117481737743178</v>
+        <v>0.00016727662953722568</v>
       </c>
       <c r="D23">
-        <v>0.00096881356120234784</v>
+        <v>4.8315407141338629e-06</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -884,13 +1001,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.99986835394658802</v>
+        <v>0.99987220290853129</v>
       </c>
       <c r="C24">
-        <v>0.00011745724218503346</v>
+        <v>0.00011625026965820381</v>
       </c>
       <c r="D24">
-        <v>1.4188811226862122e-05</v>
+        <v>1.1546821810338897e-05</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -901,13 +1018,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99971090552206654</v>
+        <v>0.99941819677292421</v>
       </c>
       <c r="C25">
-        <v>0.00010176831545235996</v>
+        <v>0.00022010158872560494</v>
       </c>
       <c r="D25">
-        <v>0.00018732616248109943</v>
+        <v>0.00036170163835020638</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -918,13 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99986454372278699</v>
+        <v>0.99953957476674593</v>
       </c>
       <c r="C26">
-        <v>0.0001274520779808093</v>
+        <v>0.00016048542270207013</v>
       </c>
       <c r="D26">
-        <v>8.0041992320899525e-06</v>
+        <v>0.00029993981055198115</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -935,13 +1052,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.99984981180712651</v>
+        <v>0.99982742037698069</v>
       </c>
       <c r="C27">
-        <v>0.00012587295229091205</v>
+        <v>0.00014286015041301654</v>
       </c>
       <c r="D27">
-        <v>2.4315240582491212e-05</v>
+        <v>2.9719472606098334e-05</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -952,13 +1069,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.99964291844080555</v>
+        <v>0.99914808606818939</v>
       </c>
       <c r="C28">
-        <v>0.00013235855020033688</v>
+        <v>0.00085142320450035775</v>
       </c>
       <c r="D28">
-        <v>0.00022472300899415725</v>
+        <v>4.9072731028486934e-07</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -969,13 +1086,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.99971292026057901</v>
+        <v>0.99970385665025474</v>
       </c>
       <c r="C29">
-        <v>0.00010005045414769458</v>
+        <v>0.00015444875194569908</v>
       </c>
       <c r="D29">
-        <v>0.00018702928527327363</v>
+        <v>0.00014169459779965579</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -986,13 +1103,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.99943354956813124</v>
+        <v>0.99983392187917264</v>
       </c>
       <c r="C30">
-        <v>0.00024698888485387936</v>
+        <v>0.00014776270639013458</v>
       </c>
       <c r="D30">
-        <v>0.00031946154701496641</v>
+        <v>1.8315414437166968e-05</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1003,13 +1120,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.9996471580310794</v>
+        <v>0.99953612592323393</v>
       </c>
       <c r="C31">
-        <v>0.00013066588096496433</v>
+        <v>0.00038871536418539032</v>
       </c>
       <c r="D31">
-        <v>0.00022217608795575781</v>
+        <v>7.5158712580496157e-05</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1020,13 +1137,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.99953015555123359</v>
+        <v>0.99941018291002104</v>
       </c>
       <c r="C32">
-        <v>9.7072813772297413e-05</v>
+        <v>0.00030198062119863889</v>
       </c>
       <c r="D32">
-        <v>0.00037277163499410958</v>
+        <v>0.00028783646878035825</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1037,13 +1154,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.99895639449761109</v>
+        <v>0.99857560344957397</v>
       </c>
       <c r="C33">
-        <v>0.000601934774749489</v>
+        <v>0.00030446641998703352</v>
       </c>
       <c r="D33">
-        <v>0.00044167072763949512</v>
+        <v>0.0011199301304389683</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1054,13 +1171,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.99858528563759785</v>
+        <v>0.99980457220579078</v>
       </c>
       <c r="C34">
-        <v>0.00022076015647165531</v>
+        <v>0.00015769609773850124</v>
       </c>
       <c r="D34">
-        <v>0.001193954205930492</v>
+        <v>3.7731696470697712e-05</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1071,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.99935369356396742</v>
+        <v>0.99856001162142016</v>
       </c>
       <c r="C35">
-        <v>0.00022420605093860564</v>
+        <v>0.00047117481737743178</v>
       </c>
       <c r="D35">
-        <v>0.00042210038509400607</v>
+        <v>0.00096881356120234784</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1088,13 +1205,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.99963770875652935</v>
+        <v>0.99986835394658802</v>
       </c>
       <c r="C36">
-        <v>0.00015116740508787864</v>
+        <v>0.00011745724218503346</v>
       </c>
       <c r="D36">
-        <v>0.00021112383838273578</v>
+        <v>1.4188811226862122e-05</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1105,13 +1222,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.99942495302430334</v>
+        <v>0.99971090552206654</v>
       </c>
       <c r="C37">
-        <v>0.00025081693437676818</v>
+        <v>0.00010176831545235996</v>
       </c>
       <c r="D37">
-        <v>0.00032423004131983726</v>
+        <v>0.00018732616248109943</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1122,13 +1239,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.99556897212051854</v>
+        <v>0.99964064727385515</v>
       </c>
       <c r="C38">
-        <v>0.0036162695129339142</v>
+        <v>0.00035743544392255076</v>
       </c>
       <c r="D38">
-        <v>0.00081475836654749652</v>
+        <v>1.9172822223641203e-06</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1139,13 +1256,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.99888683834378711</v>
+        <v>0.99965965087272401</v>
       </c>
       <c r="C39">
-        <v>0.00036239139851380458</v>
+        <v>0.00033997660296230273</v>
       </c>
       <c r="D39">
-        <v>0.00075077025769903789</v>
+        <v>3.7252431366517395e-07</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1156,13 +1273,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.99952123299030071</v>
+        <v>0.99983992242547048</v>
       </c>
       <c r="C40">
-        <v>0.00026873470333172122</v>
+        <v>0.00014277904364187481</v>
       </c>
       <c r="D40">
-        <v>0.00021003230636752867</v>
+        <v>1.7298530887657511e-05</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1173,13 +1290,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.99973421143433505</v>
+        <v>0.99986454372278699</v>
       </c>
       <c r="C41">
-        <v>0.00017612740359598594</v>
+        <v>0.0001274520779808093</v>
       </c>
       <c r="D41">
-        <v>8.9661162068947598e-05</v>
+        <v>8.0041992320899525e-06</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1190,13 +1307,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.99984929600352446</v>
+        <v>0.99984981180712651</v>
       </c>
       <c r="C42">
-        <v>6.9044883816486236e-05</v>
+        <v>0.00012587295229091205</v>
       </c>
       <c r="D42">
-        <v>8.1659112659225196e-05</v>
+        <v>2.4315240582491212e-05</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1207,13 +1324,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.99966528698777712</v>
+        <v>0.9998415004716017</v>
       </c>
       <c r="C43">
-        <v>0.00017743823559190149</v>
+        <v>0.00010353299544407761</v>
       </c>
       <c r="D43">
-        <v>0.00015727477663108521</v>
+        <v>5.4966532954246885e-05</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1224,13 +1341,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.99982601259450798</v>
+        <v>0.99964291844080555</v>
       </c>
       <c r="C44">
-        <v>0.00016378345289764441</v>
+        <v>0.00013235855020033688</v>
       </c>
       <c r="D44">
-        <v>1.020395259430253e-05</v>
+        <v>0.00022472300899415725</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1241,13 +1358,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.99936867022704956</v>
+        <v>0.99979187021662819</v>
       </c>
       <c r="C45">
-        <v>0.00024264273407807052</v>
+        <v>0.00018558423677441109</v>
       </c>
       <c r="D45">
-        <v>0.00038868703887220317</v>
+        <v>2.2545546597373834e-05</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1258,13 +1375,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.99956228404803948</v>
+        <v>0.99971292026057901</v>
       </c>
       <c r="C46">
-        <v>0.00015901156747576243</v>
+        <v>0.00010005045414769458</v>
       </c>
       <c r="D46">
-        <v>0.00027870438448465696</v>
+        <v>0.00018702928527327363</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1275,13 +1392,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.99918139283178342</v>
+        <v>0.99943354956813124</v>
       </c>
       <c r="C47">
-        <v>0.00017647255976483214</v>
+        <v>0.00024698888485387936</v>
       </c>
       <c r="D47">
-        <v>0.00064213460845160804</v>
+        <v>0.00031946154701496641</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1292,13 +1409,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.99981632078832838</v>
+        <v>0.9996471580310794</v>
       </c>
       <c r="C48">
-        <v>0.00010339708957456962</v>
+        <v>0.00013066588096496433</v>
       </c>
       <c r="D48">
-        <v>8.0282122097098194e-05</v>
+        <v>0.00022217608795575781</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1309,13 +1426,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.99921669005158986</v>
+        <v>0.99953015555123359</v>
       </c>
       <c r="C49">
-        <v>0.00032081635498855198</v>
+        <v>9.7072813772297413e-05</v>
       </c>
       <c r="D49">
-        <v>0.00046249359342169976</v>
+        <v>0.00037277163499410958</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1326,13 +1443,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.99975457592640959</v>
+        <v>0.99895639449761109</v>
       </c>
       <c r="C50">
-        <v>0.00024103623089179519</v>
+        <v>0.000601934774749489</v>
       </c>
       <c r="D50">
-        <v>4.3878426986755725e-06</v>
+        <v>0.00044167072763949512</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1343,13 +1460,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.99897122906662328</v>
+        <v>0.99858528563759785</v>
       </c>
       <c r="C51">
-        <v>0.00046825350622206911</v>
+        <v>0.00022076015647165531</v>
       </c>
       <c r="D51">
-        <v>0.00056051742715471217</v>
+        <v>0.001193954205930492</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1360,13 +1477,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.99986555834918389</v>
+        <v>0.99935369356396742</v>
       </c>
       <c r="C52">
-        <v>0.00011677453465742551</v>
+        <v>0.00022420605093860564</v>
       </c>
       <c r="D52">
-        <v>1.7667116158775875e-05</v>
+        <v>0.00042210038509400607</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1377,13 +1494,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.99934664274876872</v>
+        <v>0.99963770875652935</v>
       </c>
       <c r="C53">
-        <v>0.00017906853367892606</v>
+        <v>0.00015116740508787864</v>
       </c>
       <c r="D53">
-        <v>0.00047428871755229065</v>
+        <v>0.00021112383838273578</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1394,13 +1511,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.976766407271076</v>
+        <v>0.99971197036684956</v>
       </c>
       <c r="C54">
-        <v>0.0097498012944773199</v>
+        <v>0.0001802443067284984</v>
       </c>
       <c r="D54">
-        <v>0.013483791434446718</v>
+        <v>0.00010778532642205483</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1411,13 +1528,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.98258301930928327</v>
+        <v>0.99942495302430334</v>
       </c>
       <c r="C55">
-        <v>0.011171390726656922</v>
+        <v>0.00025081693437676818</v>
       </c>
       <c r="D55">
-        <v>0.0062455899640598287</v>
+        <v>0.00032423004131983726</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1428,13 +1545,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.97934235207236875</v>
+        <v>0.99556897212051854</v>
       </c>
       <c r="C56">
-        <v>0.020513291768767938</v>
+        <v>0.0036162695129339142</v>
       </c>
       <c r="D56">
-        <v>0.00014435615886316055</v>
+        <v>0.00081475836654749652</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1445,13 +1562,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.96433333409462241</v>
+        <v>0.99888683834378711</v>
       </c>
       <c r="C57">
-        <v>0.022080014054583715</v>
+        <v>0.00036239139851380458</v>
       </c>
       <c r="D57">
-        <v>0.013586651850793944</v>
+        <v>0.00075077025769903789</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1462,13 +1579,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.99960475883864397</v>
+        <v>0.99952123299030071</v>
       </c>
       <c r="C58">
-        <v>0.00010871132977325602</v>
+        <v>0.00026873470333172122</v>
       </c>
       <c r="D58">
-        <v>0.0002865298315826859</v>
+        <v>0.00021003230636752867</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1479,13 +1596,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.99949041663071125</v>
+        <v>0.99973421143433505</v>
       </c>
       <c r="C59">
-        <v>0.00028873712322307227</v>
+        <v>0.00017612740359598594</v>
       </c>
       <c r="D59">
-        <v>0.00022084624606583472</v>
+        <v>8.9661162068947598e-05</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1496,13 +1613,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.91798913446013786</v>
+        <v>0.99984929600352446</v>
       </c>
       <c r="C60">
-        <v>0.080461038991193556</v>
+        <v>6.9044883816486236e-05</v>
       </c>
       <c r="D60">
-        <v>0.0015498265486685813</v>
+        <v>8.1659112659225196e-05</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1513,13 +1630,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.99958457714465754</v>
+        <v>0.99966528698777712</v>
       </c>
       <c r="C61">
-        <v>0.00017279034430241951</v>
+        <v>0.00017743823559190149</v>
       </c>
       <c r="D61">
-        <v>0.00024263251103999792</v>
+        <v>0.00015727477663108521</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1530,13 +1647,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.99938894716742399</v>
+        <v>0.99956355875053871</v>
       </c>
       <c r="C62">
-        <v>0.00028232134753850935</v>
+        <v>0.00043551340906338435</v>
       </c>
       <c r="D62">
-        <v>0.00032873148503735438</v>
+        <v>9.2784039781944809e-07</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1547,13 +1664,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.99953968819449479</v>
+        <v>0.99982959307550734</v>
       </c>
       <c r="C63">
-        <v>0.00010737194980964687</v>
+        <v>0.00013297979458528529</v>
       </c>
       <c r="D63">
-        <v>0.00035293985569541581</v>
+        <v>3.7427129907421381e-05</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1564,13 +1681,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.99908180464382679</v>
+        <v>0.99982601259450798</v>
       </c>
       <c r="C64">
-        <v>0.00031999431363261916</v>
+        <v>0.00016378345289764441</v>
       </c>
       <c r="D64">
-        <v>0.00059820104254058046</v>
+        <v>1.020395259430253e-05</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1581,13 +1698,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.99747944968597546</v>
+        <v>0.99936867022704956</v>
       </c>
       <c r="C65">
-        <v>0.00051982068378122852</v>
+        <v>0.00024264273407807052</v>
       </c>
       <c r="D65">
-        <v>0.0020007296302432206</v>
+        <v>0.00038868703887220317</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1598,13 +1715,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.99952558832034966</v>
+        <v>0.99956228404803948</v>
       </c>
       <c r="C66">
-        <v>0.00011618614824927789</v>
+        <v>0.00015901156747576243</v>
       </c>
       <c r="D66">
-        <v>0.00035822553140117718</v>
+        <v>0.00027870438448465696</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1615,13 +1732,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.99978945080304216</v>
+        <v>0.99918139283178342</v>
       </c>
       <c r="C67">
-        <v>0.0001872095771301688</v>
+        <v>0.00017647255976483214</v>
       </c>
       <c r="D67">
-        <v>2.3339619827812639e-05</v>
+        <v>0.00064213460845160804</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -1632,13 +1749,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.99976406051675293</v>
+        <v>0.99981632078832838</v>
       </c>
       <c r="C68">
-        <v>0.00011253547207354604</v>
+        <v>0.00010339708957456962</v>
       </c>
       <c r="D68">
-        <v>0.00012340401117344658</v>
+        <v>8.0282122097098194e-05</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -1649,13 +1766,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.99966902448197348</v>
+        <v>0.99921669005158986</v>
       </c>
       <c r="C69">
-        <v>9.9922390523888167e-05</v>
+        <v>0.00032081635498855198</v>
       </c>
       <c r="D69">
-        <v>0.00023105312750267609</v>
+        <v>0.00046249359342169976</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -1666,13 +1783,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.99936666767424032</v>
+        <v>0.99967563739977117</v>
       </c>
       <c r="C70">
-        <v>0.00030250639464876275</v>
+        <v>0.00020992079564982678</v>
       </c>
       <c r="D70">
-        <v>0.00033082593111089138</v>
+        <v>0.00011444180457895423</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1683,13 +1800,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.99920827195507234</v>
+        <v>0.99975457592640959</v>
       </c>
       <c r="C71">
-        <v>0.00020200942159307212</v>
+        <v>0.00024103623089179519</v>
       </c>
       <c r="D71">
-        <v>0.00058971862333466951</v>
+        <v>4.3878426986755725e-06</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -1700,13 +1817,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.99953697610650805</v>
+        <v>0.99983069651913614</v>
       </c>
       <c r="C72">
-        <v>0.00031095140953780152</v>
+        <v>0.00013338408454263131</v>
       </c>
       <c r="D72">
-        <v>0.00015207248395423208</v>
+        <v>3.5919396321238014e-05</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -1717,13 +1834,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.99952243350119852</v>
+        <v>0.99897122906662328</v>
       </c>
       <c r="C73">
-        <v>0.00016731117125708668</v>
+        <v>0.00046825350622206911</v>
       </c>
       <c r="D73">
-        <v>0.00031025532754441022</v>
+        <v>0.00056051742715471217</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -1734,13 +1851,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.99877408930447842</v>
+        <v>0.99986555834918389</v>
       </c>
       <c r="C74">
-        <v>0.00019060658030657491</v>
+        <v>0.00011677453465742551</v>
       </c>
       <c r="D74">
-        <v>0.0010353041152150646</v>
+        <v>1.7667116158775875e-05</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -1751,13 +1868,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.99976138123914693</v>
+        <v>0.99934664274876872</v>
       </c>
       <c r="C75">
-        <v>9.3621544035671632e-05</v>
+        <v>0.00017906853367892606</v>
       </c>
       <c r="D75">
-        <v>0.00014499721681748178</v>
+        <v>0.00047428871755229065</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -1768,13 +1885,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.97675563282053568</v>
+        <v>0.976766407271076</v>
       </c>
       <c r="C76">
-        <v>0.02282519087254014</v>
+        <v>0.0097498012944773199</v>
       </c>
       <c r="D76">
-        <v>0.00041917630692419401</v>
+        <v>0.013483791434446718</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -1785,13 +1902,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.95587111066758568</v>
+        <v>0.98258301930928327</v>
       </c>
       <c r="C77">
-        <v>0.043434445394697256</v>
+        <v>0.011171390726656922</v>
       </c>
       <c r="D77">
-        <v>0.00069444393771713061</v>
+        <v>0.0062455899640598287</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -1802,13 +1919,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.98483554766297188</v>
+        <v>0.97934235207236875</v>
       </c>
       <c r="C78">
-        <v>0.0035622268027339886</v>
+        <v>0.020513291768767938</v>
       </c>
       <c r="D78">
-        <v>0.011602225534294106</v>
+        <v>0.00014435615886316055</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -1819,13 +1936,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.99974832220236987</v>
+        <v>0.96433333409462241</v>
       </c>
       <c r="C79">
-        <v>0.00017309033080573077</v>
+        <v>0.022080014054583715</v>
       </c>
       <c r="D79">
-        <v>7.8587466824375202e-05</v>
+        <v>0.013586651850793944</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -1836,13 +1953,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.9796221392944513</v>
+        <v>0.99960475883864397</v>
       </c>
       <c r="C80">
-        <v>0.018724868755152488</v>
+        <v>0.00010871132977325602</v>
       </c>
       <c r="D80">
-        <v>0.0016529919503963596</v>
+        <v>0.0002865298315826859</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -1853,13 +1970,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.9562972761125994</v>
+        <v>0.99949041663071125</v>
       </c>
       <c r="C81">
-        <v>0.04311417831578078</v>
+        <v>0.00028873712322307227</v>
       </c>
       <c r="D81">
-        <v>0.0005885455716198902</v>
+        <v>0.00022084624606583472</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -1870,13 +1987,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.99973781411829143</v>
+        <v>0.91798913446013786</v>
       </c>
       <c r="C82">
-        <v>0.00010511972017699445</v>
+        <v>0.080461038991193556</v>
       </c>
       <c r="D82">
-        <v>0.00015706616153154929</v>
+        <v>0.0015498265486685813</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -1887,13 +2004,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.97066640577376417</v>
+        <v>0.99988206420216941</v>
       </c>
       <c r="C83">
-        <v>0.028649336921865758</v>
+        <v>9.2951556944837415e-05</v>
       </c>
       <c r="D83">
-        <v>0.00068425730437001516</v>
+        <v>2.4984240885857536e-05</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -1904,13 +2021,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.97936886908952447</v>
+        <v>0.99958457714465754</v>
       </c>
       <c r="C84">
-        <v>0.020081927909590378</v>
+        <v>0.00017279034430241951</v>
       </c>
       <c r="D84">
-        <v>0.00054920300088507289</v>
+        <v>0.00024263251103999792</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -1921,13 +2038,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.94365214601721037</v>
+        <v>0.99938894716742399</v>
       </c>
       <c r="C85">
-        <v>0.055754537673625447</v>
+        <v>0.00028232134753850935</v>
       </c>
       <c r="D85">
-        <v>0.00059331630916412722</v>
+        <v>0.00032873148503735438</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -1938,13 +2055,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.96287970279289015</v>
+        <v>0.99953968819449479</v>
       </c>
       <c r="C86">
-        <v>0.036830949287328697</v>
+        <v>0.00010737194980964687</v>
       </c>
       <c r="D86">
-        <v>0.00028934791978106372</v>
+        <v>0.00035293985569541581</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -1955,13 +2072,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.97149295561400961</v>
+        <v>0.99908180464382679</v>
       </c>
       <c r="C87">
-        <v>0.027259839554900391</v>
+        <v>0.00031999431363261916</v>
       </c>
       <c r="D87">
-        <v>0.0012472048310900401</v>
+        <v>0.00059820104254058046</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -1972,13 +2089,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.99886710905982934</v>
+        <v>0.99747944968597546</v>
       </c>
       <c r="C88">
-        <v>0.0010929062925618205</v>
+        <v>0.00051982068378122852</v>
       </c>
       <c r="D88">
-        <v>3.9984647608864533e-05</v>
+        <v>0.0020007296302432206</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -1989,13 +2106,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.99915083621419087</v>
+        <v>0.99950189294558511</v>
       </c>
       <c r="C89">
-        <v>0.00025659480831722312</v>
+        <v>0.00049733133050726744</v>
       </c>
       <c r="D89">
-        <v>0.00059256897749188119</v>
+        <v>7.7572390761602414e-07</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2006,13 +2123,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.99905699587972829</v>
+        <v>0.99952558832034966</v>
       </c>
       <c r="C90">
-        <v>0.00023940891299541525</v>
+        <v>0.00011618614824927789</v>
       </c>
       <c r="D90">
-        <v>0.00070359520727627319</v>
+        <v>0.00035822553140117718</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2023,13 +2140,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.99928026609345366</v>
+        <v>0.99978945080304216</v>
       </c>
       <c r="C91">
-        <v>0.0003236984148333353</v>
+        <v>0.0001872095771301688</v>
       </c>
       <c r="D91">
-        <v>0.0003960354917129949</v>
+        <v>2.3339619827812639e-05</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2040,13 +2157,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.99915570831959588</v>
+        <v>0.999943469582811</v>
       </c>
       <c r="C92">
-        <v>0.00019425469095231637</v>
+        <v>5.5069745628802751e-05</v>
       </c>
       <c r="D92">
-        <v>0.00065003698945189379</v>
+        <v>1.4606715600533982e-06</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2057,13 +2174,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.98662283478444057</v>
+        <v>0.99976406051675293</v>
       </c>
       <c r="C93">
-        <v>0.010766431297077366</v>
+        <v>0.00011253547207354604</v>
       </c>
       <c r="D93">
-        <v>0.0026107339184820682</v>
+        <v>0.00012340401117344658</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2074,13 +2191,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.99882669005697611</v>
+        <v>0.99966902448197348</v>
       </c>
       <c r="C94">
-        <v>0.00020422320887030935</v>
+        <v>9.9922390523888167e-05</v>
       </c>
       <c r="D94">
-        <v>0.00096908673415369809</v>
+        <v>0.00023105312750267609</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2091,13 +2208,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.99967012645654485</v>
+        <v>0.99995714307681427</v>
       </c>
       <c r="C95">
-        <v>0.00010381848317070299</v>
+        <v>3.4276386242193151e-05</v>
       </c>
       <c r="D95">
-        <v>0.00022605506028441566</v>
+        <v>8.580536943541554e-06</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2108,13 +2225,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.99805841003189621</v>
+        <v>0.99967936139609448</v>
       </c>
       <c r="C96">
-        <v>8.8070111650870016e-05</v>
+        <v>0.00031438445230402265</v>
       </c>
       <c r="D96">
-        <v>0.0018535198564528675</v>
+        <v>6.2541516013266153e-06</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2125,13 +2242,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.99883488411994714</v>
+        <v>0.99936666767424032</v>
       </c>
       <c r="C97">
-        <v>0.00046891815239963417</v>
+        <v>0.00030250639464876275</v>
       </c>
       <c r="D97">
-        <v>0.00069619772765305268</v>
+        <v>0.00033082593111089138</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2142,13 +2259,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.99908498529023948</v>
+        <v>0.99920827195507234</v>
       </c>
       <c r="C98">
-        <v>0.00027235543364845873</v>
+        <v>0.00020200942159307212</v>
       </c>
       <c r="D98">
-        <v>0.00064265927611211198</v>
+        <v>0.00058971862333466951</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2159,13 +2276,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.99982197475693546</v>
+        <v>0.99953697610650805</v>
       </c>
       <c r="C99">
-        <v>0.00017099989933342855</v>
+        <v>0.00031095140953780152</v>
       </c>
       <c r="D99">
-        <v>7.0253437311835806e-06</v>
+        <v>0.00015207248395423208</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2176,13 +2293,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.99968041942153052</v>
+        <v>0.99952243350119852</v>
       </c>
       <c r="C100">
-        <v>0.00017086686486327086</v>
+        <v>0.00016731117125708668</v>
       </c>
       <c r="D100">
-        <v>0.00014871371360622286</v>
+        <v>0.00031025532754441022</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2193,13 +2310,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.99933603721838193</v>
+        <v>0.99877408930447842</v>
       </c>
       <c r="C101">
-        <v>0.00024306863738798767</v>
+        <v>0.00019060658030657491</v>
       </c>
       <c r="D101">
-        <v>0.00042089414423010843</v>
+        <v>0.0010353041152150646</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2210,13 +2327,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.99973868281917833</v>
+        <v>0.99972743552936782</v>
       </c>
       <c r="C102">
-        <v>0.00013181113397686721</v>
+        <v>0.00026656214652076229</v>
       </c>
       <c r="D102">
-        <v>0.00012950604684478382</v>
+        <v>6.0023241113166446e-06</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2227,13 +2344,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.99922866361181528</v>
+        <v>0.99976138123914693</v>
       </c>
       <c r="C103">
-        <v>0.00030614231211842011</v>
+        <v>9.3621544035671632e-05</v>
       </c>
       <c r="D103">
-        <v>0.00046519407606637059</v>
+        <v>0.00014499721681748178</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2244,13 +2361,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.99979183799884763</v>
+        <v>0.97675563282053568</v>
       </c>
       <c r="C104">
-        <v>0.00010470809762106614</v>
+        <v>0.02282519087254014</v>
       </c>
       <c r="D104">
-        <v>0.00010345390353138477</v>
+        <v>0.00041917630692419401</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2261,13 +2378,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.99929660700807443</v>
+        <v>0.95587111066758568</v>
       </c>
       <c r="C105">
-        <v>0.00026854140662980574</v>
+        <v>0.043434445394697256</v>
       </c>
       <c r="D105">
-        <v>0.0004348515852958356</v>
+        <v>0.00069444393771713061</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2278,13 +2395,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.99767008006186775</v>
+        <v>0.98483554766297188</v>
       </c>
       <c r="C106">
-        <v>0.00022403691729675699</v>
+        <v>0.0035622268027339886</v>
       </c>
       <c r="D106">
-        <v>0.0021058830208355358</v>
+        <v>0.011602225534294106</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2295,13 +2412,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.98886835819263941</v>
+        <v>0.99974832220236987</v>
       </c>
       <c r="C107">
-        <v>0.010586388867709337</v>
+        <v>0.00017309033080573077</v>
       </c>
       <c r="D107">
-        <v>0.00054525293965133588</v>
+        <v>7.8587466824375202e-05</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2312,13 +2429,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.96435496276965693</v>
+        <v>0.9796221392944513</v>
       </c>
       <c r="C108">
-        <v>0.03534696185008751</v>
+        <v>0.018724868755152488</v>
       </c>
       <c r="D108">
-        <v>0.00029807538025556577</v>
+        <v>0.0016529919503963596</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2329,13 +2446,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.99939770373061698</v>
+        <v>0.9562972761125994</v>
       </c>
       <c r="C109">
-        <v>0.00023146290715196893</v>
+        <v>0.04311417831578078</v>
       </c>
       <c r="D109">
-        <v>0.00037083336223107732</v>
+        <v>0.0005885455716198902</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2346,13 +2463,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.99976836773371058</v>
+        <v>0.99973781411829143</v>
       </c>
       <c r="C110">
-        <v>0.00020010580738724168</v>
+        <v>0.00010511972017699445</v>
       </c>
       <c r="D110">
-        <v>3.1526458902178786e-05</v>
+        <v>0.00015706616153154929</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2363,13 +2480,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.99869511467253957</v>
+        <v>0.97066640577376417</v>
       </c>
       <c r="C111">
-        <v>0.00023390678701262432</v>
+        <v>0.028649336921865758</v>
       </c>
       <c r="D111">
-        <v>0.0010709785404477263</v>
+        <v>0.00068425730437001516</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -2380,13 +2497,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.99964793166995314</v>
+        <v>0.97936886908952447</v>
       </c>
       <c r="C112">
-        <v>9.4917148941485582e-05</v>
+        <v>0.020081927909590378</v>
       </c>
       <c r="D112">
-        <v>0.00025715118110547253</v>
+        <v>0.00054920300088507289</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2397,13 +2514,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.99950942169650048</v>
+        <v>0.94365214601721037</v>
       </c>
       <c r="C113">
-        <v>0.0002097987038389627</v>
+        <v>0.055754537673625447</v>
       </c>
       <c r="D113">
-        <v>0.00028077959966045241</v>
+        <v>0.00059331630916412722</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -2414,13 +2531,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.99972181127868254</v>
+        <v>0.96287970279289015</v>
       </c>
       <c r="C114">
-        <v>6.8194200694169865e-05</v>
+        <v>0.036830949287328697</v>
       </c>
       <c r="D114">
-        <v>0.00020999452062334499</v>
+        <v>0.00028934791978106372</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2431,13 +2548,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.99922786159163557</v>
+        <v>0.97149295561400961</v>
       </c>
       <c r="C115">
-        <v>0.00069393825355396771</v>
+        <v>0.027259839554900391</v>
       </c>
       <c r="D115">
-        <v>7.8200154810521854e-05</v>
+        <v>0.0012472048310900401</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -2448,13 +2565,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.99923279843935775</v>
+        <v>0.99886710905982934</v>
       </c>
       <c r="C116">
-        <v>0.00069486791551881207</v>
+        <v>0.0010929062925618205</v>
       </c>
       <c r="D116">
-        <v>7.233364512347836e-05</v>
+        <v>3.9984647608864533e-05</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -2465,13 +2582,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.9994470707640154</v>
+        <v>0.99915083621419087</v>
       </c>
       <c r="C117">
-        <v>0.00049762385748912971</v>
+        <v>0.00025659480831722312</v>
       </c>
       <c r="D117">
-        <v>5.5305378495435995e-05</v>
+        <v>0.00059256897749188119</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -2482,13 +2599,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.99932777539586182</v>
+        <v>0.99905699587972829</v>
       </c>
       <c r="C118">
-        <v>0.00012193082622348028</v>
+        <v>0.00023940891299541525</v>
       </c>
       <c r="D118">
-        <v>0.00055029377791472015</v>
+        <v>0.00070359520727627319</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -2499,13 +2616,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.99938290274555353</v>
+        <v>0.99928026609345366</v>
       </c>
       <c r="C119">
-        <v>0.0005629126503790277</v>
+        <v>0.0003236984148333353</v>
       </c>
       <c r="D119">
-        <v>5.4184604067401157e-05</v>
+        <v>0.0003960354917129949</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -2516,13 +2633,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.99975864429341688</v>
+        <v>0.99915570831959588</v>
       </c>
       <c r="C120">
-        <v>0.00013305634722149618</v>
+        <v>0.00019425469095231637</v>
       </c>
       <c r="D120">
-        <v>0.00010829935936166711</v>
+        <v>0.00065003698945189379</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -2533,13 +2650,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.98722326726088405</v>
+        <v>0.98662283478444057</v>
       </c>
       <c r="C121">
-        <v>0.012468168147131623</v>
+        <v>0.010766431297077366</v>
       </c>
       <c r="D121">
-        <v>0.00030856459198441412</v>
+        <v>0.0026107339184820682</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -2550,13 +2667,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.99986900047876059</v>
+        <v>0.99968459257660436</v>
       </c>
       <c r="C122">
-        <v>9.6290557795263146e-05</v>
+        <v>0.00031467154036869151</v>
       </c>
       <c r="D122">
-        <v>3.4708963444052999e-05</v>
+        <v>7.358830271738899e-07</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -2567,13 +2684,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.99893973702914873</v>
+        <v>0.99882669005697611</v>
       </c>
       <c r="C123">
-        <v>0.00018299563682143335</v>
+        <v>0.00020422320887030935</v>
       </c>
       <c r="D123">
-        <v>0.00087726733402977827</v>
+        <v>0.00096908673415369809</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -2584,13 +2701,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.99981870149810337</v>
+        <v>0.99978756271033919</v>
       </c>
       <c r="C124">
-        <v>0.00015433948999861322</v>
+        <v>0.00020949962365087642</v>
       </c>
       <c r="D124">
-        <v>2.6959011898101672e-05</v>
+        <v>2.9376660097808764e-06</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -2601,13 +2718,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.99902931787304194</v>
+        <v>0.99967012645654485</v>
       </c>
       <c r="C125">
-        <v>0.00013556150172415294</v>
+        <v>0.00010381848317070299</v>
       </c>
       <c r="D125">
-        <v>0.00083512062523389652</v>
+        <v>0.00022605506028441566</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -2618,13 +2735,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.9993392678889601</v>
+        <v>0.99981422908357276</v>
       </c>
       <c r="C126">
-        <v>0.0001816006724121263</v>
+        <v>0.00018226555565539458</v>
       </c>
       <c r="D126">
-        <v>0.00047913143862775748</v>
+        <v>3.5053607717129464e-06</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -2635,13 +2752,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.98140602696677648</v>
+        <v>0.99805841003189621</v>
       </c>
       <c r="C127">
-        <v>0.018050217329805392</v>
+        <v>8.8070111650870016e-05</v>
       </c>
       <c r="D127">
-        <v>0.00054375570341814268</v>
+        <v>0.0018535198564528675</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -2652,13 +2769,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.98716722317672012</v>
+        <v>0.99981828402350092</v>
       </c>
       <c r="C128">
-        <v>0.011470514840436563</v>
+        <v>0.00016364222279956892</v>
       </c>
       <c r="D128">
-        <v>0.0013622619828433254</v>
+        <v>1.8073753699492779e-05</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -2669,13 +2786,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.98530148610685631</v>
+        <v>0.99883488411994714</v>
       </c>
       <c r="C129">
-        <v>0.014408701696079679</v>
+        <v>0.00046891815239963417</v>
       </c>
       <c r="D129">
-        <v>0.00028981219706399752</v>
+        <v>0.00069619772765305268</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -2686,13 +2803,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.97955375398748457</v>
+        <v>0.99908498529023948</v>
       </c>
       <c r="C130">
-        <v>0.019834909935078273</v>
+        <v>0.00027235543364845873</v>
       </c>
       <c r="D130">
-        <v>0.00061133607743725287</v>
+        <v>0.00064265927611211198</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -2703,13 +2820,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.97943466556378689</v>
+        <v>0.99982197475693546</v>
       </c>
       <c r="C131">
-        <v>0.019881354582066611</v>
+        <v>0.00017099989933342855</v>
       </c>
       <c r="D131">
-        <v>0.00068397985414645672</v>
+        <v>7.0253437311835806e-06</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -2720,13 +2837,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.99728332191433589</v>
+        <v>0.99968041942153052</v>
       </c>
       <c r="C132">
-        <v>0.0019846803583814508</v>
+        <v>0.00017086686486327086</v>
       </c>
       <c r="D132">
-        <v>0.00073199772728274896</v>
+        <v>0.00014871371360622286</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -2737,13 +2854,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.99647421124175972</v>
+        <v>0.99933603721838193</v>
       </c>
       <c r="C133">
-        <v>0.0021985591615854487</v>
+        <v>0.00024306863738798767</v>
       </c>
       <c r="D133">
-        <v>0.0013272295966548606</v>
+        <v>0.00042089414423010843</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -2754,13 +2871,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.97266183640110659</v>
+        <v>0.99973868281917833</v>
       </c>
       <c r="C134">
-        <v>0.023634147319325286</v>
+        <v>0.00013181113397686721</v>
       </c>
       <c r="D134">
-        <v>0.0037040162795681981</v>
+        <v>0.00012950604684478382</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -2771,15 +2888,678 @@
         <v>134</v>
       </c>
       <c r="B135">
+        <v>0.99922866361181528</v>
+      </c>
+      <c r="C135">
+        <v>0.00030614231211842011</v>
+      </c>
+      <c r="D135">
+        <v>0.00046519407606637059</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.99979183799884763</v>
+      </c>
+      <c r="C136">
+        <v>0.00010470809762106614</v>
+      </c>
+      <c r="D136">
+        <v>0.00010345390353138477</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.99929660700807443</v>
+      </c>
+      <c r="C137">
+        <v>0.00026854140662980574</v>
+      </c>
+      <c r="D137">
+        <v>0.0004348515852958356</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.99767008006186775</v>
+      </c>
+      <c r="C138">
+        <v>0.00022403691729675699</v>
+      </c>
+      <c r="D138">
+        <v>0.0021058830208355358</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.98886835819263941</v>
+      </c>
+      <c r="C139">
+        <v>0.010586388867709337</v>
+      </c>
+      <c r="D139">
+        <v>0.00054525293965133588</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.96435496276965693</v>
+      </c>
+      <c r="C140">
+        <v>0.03534696185008751</v>
+      </c>
+      <c r="D140">
+        <v>0.00029807538025556577</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.99939770373061698</v>
+      </c>
+      <c r="C141">
+        <v>0.00023146290715196893</v>
+      </c>
+      <c r="D141">
+        <v>0.00037083336223107732</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.99860228016437746</v>
+      </c>
+      <c r="C142">
+        <v>0.00017160079794104811</v>
+      </c>
+      <c r="D142">
+        <v>0.0012261190376815167</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.99976836773371058</v>
+      </c>
+      <c r="C143">
+        <v>0.00020010580738724168</v>
+      </c>
+      <c r="D143">
+        <v>3.1526458902178786e-05</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.99869511467253957</v>
+      </c>
+      <c r="C144">
+        <v>0.00023390678701262432</v>
+      </c>
+      <c r="D144">
+        <v>0.0010709785404477263</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.99964793166995314</v>
+      </c>
+      <c r="C145">
+        <v>9.4917148941485582e-05</v>
+      </c>
+      <c r="D145">
+        <v>0.00025715118110547253</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.99950942169650048</v>
+      </c>
+      <c r="C146">
+        <v>0.0002097987038389627</v>
+      </c>
+      <c r="D146">
+        <v>0.00028077959966045241</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.99972181127868254</v>
+      </c>
+      <c r="C147">
+        <v>6.8194200694169865e-05</v>
+      </c>
+      <c r="D147">
+        <v>0.00020999452062334499</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.99922786159163557</v>
+      </c>
+      <c r="C148">
+        <v>0.00069393825355396771</v>
+      </c>
+      <c r="D148">
+        <v>7.8200154810521854e-05</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.99923279843935775</v>
+      </c>
+      <c r="C149">
+        <v>0.00069486791551881207</v>
+      </c>
+      <c r="D149">
+        <v>7.233364512347836e-05</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.9994470707640154</v>
+      </c>
+      <c r="C150">
+        <v>0.00049762385748912971</v>
+      </c>
+      <c r="D150">
+        <v>5.5305378495435995e-05</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.99932777539586182</v>
+      </c>
+      <c r="C151">
+        <v>0.00012193082622348028</v>
+      </c>
+      <c r="D151">
+        <v>0.00055029377791472015</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.99938290274555353</v>
+      </c>
+      <c r="C152">
+        <v>0.0005629126503790277</v>
+      </c>
+      <c r="D152">
+        <v>5.4184604067401157e-05</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.99976095973760515</v>
+      </c>
+      <c r="C153">
+        <v>0.00015513370806266143</v>
+      </c>
+      <c r="D153">
+        <v>8.3906554332300879e-05</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.99975864429341688</v>
+      </c>
+      <c r="C154">
+        <v>0.00013305634722149618</v>
+      </c>
+      <c r="D154">
+        <v>0.00010829935936166711</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.98722326726088405</v>
+      </c>
+      <c r="C155">
+        <v>0.012468168147131623</v>
+      </c>
+      <c r="D155">
+        <v>0.00030856459198441412</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.99992575190116106</v>
+      </c>
+      <c r="C156">
+        <v>4.6664666404484274e-05</v>
+      </c>
+      <c r="D156">
+        <v>2.7583432434370474e-05</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.99926765614653157</v>
+      </c>
+      <c r="C157">
+        <v>0.00027679471798943713</v>
+      </c>
+      <c r="D157">
+        <v>0.00045554913547901855</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.99985736319399166</v>
+      </c>
+      <c r="C158">
+        <v>0.00013156554534535773</v>
+      </c>
+      <c r="D158">
+        <v>1.1071260662955414e-05</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.99986900047876059</v>
+      </c>
+      <c r="C159">
+        <v>9.6290557795263146e-05</v>
+      </c>
+      <c r="D159">
+        <v>3.4708963444052999e-05</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.99893973702914873</v>
+      </c>
+      <c r="C160">
+        <v>0.00018299563682143335</v>
+      </c>
+      <c r="D160">
+        <v>0.00087726733402977827</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.99977784083358989</v>
+      </c>
+      <c r="C161">
+        <v>0.00021892623731120659</v>
+      </c>
+      <c r="D161">
+        <v>3.2329290989360577e-06</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.99957239833273603</v>
+      </c>
+      <c r="C162">
+        <v>0.00042696021259745011</v>
+      </c>
+      <c r="D162">
+        <v>6.4145466641722757e-07</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.99981870149810337</v>
+      </c>
+      <c r="C163">
+        <v>0.00015433948999861322</v>
+      </c>
+      <c r="D163">
+        <v>2.6959011898101672e-05</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.99902931787304194</v>
+      </c>
+      <c r="C164">
+        <v>0.00013556150172415294</v>
+      </c>
+      <c r="D164">
+        <v>0.00083512062523389652</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.9993392678889601</v>
+      </c>
+      <c r="C165">
+        <v>0.0001816006724121263</v>
+      </c>
+      <c r="D165">
+        <v>0.00047913143862775748</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.98140602696677648</v>
+      </c>
+      <c r="C166">
+        <v>0.018050217329805392</v>
+      </c>
+      <c r="D166">
+        <v>0.00054375570341814268</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.98716722317672012</v>
+      </c>
+      <c r="C167">
+        <v>0.011470514840436563</v>
+      </c>
+      <c r="D167">
+        <v>0.0013622619828433254</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.98530148610685631</v>
+      </c>
+      <c r="C168">
+        <v>0.014408701696079679</v>
+      </c>
+      <c r="D168">
+        <v>0.00028981219706399752</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.97955375398748457</v>
+      </c>
+      <c r="C169">
+        <v>0.019834909935078273</v>
+      </c>
+      <c r="D169">
+        <v>0.00061133607743725287</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.97943466556378689</v>
+      </c>
+      <c r="C170">
+        <v>0.019881354582066611</v>
+      </c>
+      <c r="D170">
+        <v>0.00068397985414645672</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.99728332191433589</v>
+      </c>
+      <c r="C171">
+        <v>0.0019846803583814508</v>
+      </c>
+      <c r="D171">
+        <v>0.00073199772728274896</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.99647421124175972</v>
+      </c>
+      <c r="C172">
+        <v>0.0021985591615854487</v>
+      </c>
+      <c r="D172">
+        <v>0.0013272295966548606</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.97266183640110659</v>
+      </c>
+      <c r="C173">
+        <v>0.023634147319325286</v>
+      </c>
+      <c r="D173">
+        <v>0.0037040162795681981</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <v>0.97658599128375023</v>
       </c>
-      <c r="C135">
+      <c r="C174">
         <v>0.019378688702725692</v>
       </c>
-      <c r="D135">
+      <c r="D174">
         <v>0.004035320013524215</v>
       </c>
-      <c r="E135">
+      <c r="E174">
         <v>1</v>
       </c>
     </row>
